--- a/Test Data/PEMC Test Data.xlsx
+++ b/Test Data/PEMC Test Data.xlsx
@@ -4,27 +4,46 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19545" windowHeight="9675" activeTab="2"/>
+    <workbookView windowWidth="21000" windowHeight="8340"/>
   </bookViews>
   <sheets>
-    <sheet name="CMS Login" sheetId="1" r:id="rId1"/>
-    <sheet name="CMS Events and Trainings" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="test" sheetId="4" r:id="rId1"/>
+    <sheet name="CMS Login" sheetId="1" r:id="rId2"/>
+    <sheet name="CMS Events and Trainings" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Please re-enter your username and/or password.</t>
+  </si>
+  <si>
+    <t>aronbraza</t>
+  </si>
+  <si>
+    <t>Wog12345!</t>
+  </si>
+  <si>
+    <t>aronpaul</t>
+  </si>
+  <si>
+    <t>Wog098765</t>
+  </si>
   <si>
     <t>Test Case</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
   </si>
   <si>
     <t>L_00</t>
@@ -338,8 +357,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -362,6 +381,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -377,7 +420,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,6 +489,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,111 +516,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -519,103 +538,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,73 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,17 +741,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,28 +759,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,6 +804,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -810,27 +838,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,130 +859,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,7 +1007,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1001,6 +1019,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1321,50 +1342,61 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="19.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="23.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="19.287037037037" customWidth="1"/>
+    <col min="3" max="3" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" ht="57.6" spans="1:3">
+      <c r="A2">
+        <v>789456123</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" ht="57.6" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="4" ht="57.6" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1376,324 +1408,380 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="23.712962962963" customWidth="1"/>
+    <col min="3" max="3" width="19.287037037037" customWidth="1"/>
+    <col min="4" max="4" width="14.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView topLeftCell="AO1" workbookViewId="0">
       <selection activeCell="AR26" sqref="AR26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="24.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="31.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="28.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="27.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="20.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="17.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="16.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="18.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="20.7142857142857" customWidth="1"/>
-    <col min="12" max="12" width="19.8571428571429" customWidth="1"/>
-    <col min="13" max="13" width="19.4285714285714" customWidth="1"/>
-    <col min="14" max="14" width="15.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="19.1428571428571" customWidth="1"/>
-    <col min="16" max="16" width="19.2857142857143" customWidth="1"/>
-    <col min="17" max="17" width="27.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="26.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="24.4259259259259" customWidth="1"/>
+    <col min="4" max="4" width="31.1388888888889" customWidth="1"/>
+    <col min="5" max="5" width="28.287037037037" customWidth="1"/>
+    <col min="6" max="6" width="27.1388888888889" customWidth="1"/>
+    <col min="7" max="7" width="20.712962962963" customWidth="1"/>
+    <col min="8" max="8" width="17.4259259259259" customWidth="1"/>
+    <col min="9" max="9" width="16.1388888888889" customWidth="1"/>
+    <col min="10" max="10" width="18.712962962963" customWidth="1"/>
+    <col min="11" max="11" width="20.712962962963" customWidth="1"/>
+    <col min="12" max="12" width="19.8611111111111" customWidth="1"/>
+    <col min="13" max="13" width="19.4259259259259" customWidth="1"/>
+    <col min="14" max="14" width="15.1388888888889" customWidth="1"/>
+    <col min="15" max="15" width="19.1388888888889" customWidth="1"/>
+    <col min="16" max="16" width="19.287037037037" customWidth="1"/>
+    <col min="17" max="17" width="27.8611111111111" customWidth="1"/>
     <col min="18" max="18" width="27" customWidth="1"/>
-    <col min="19" max="19" width="27.8571428571429" customWidth="1"/>
-    <col min="20" max="20" width="25.5714285714286" customWidth="1"/>
-    <col min="21" max="32" width="29.1428571428571" customWidth="1"/>
-    <col min="33" max="33" width="24.1428571428571" customWidth="1"/>
-    <col min="34" max="34" width="28.5714285714286" customWidth="1"/>
-    <col min="35" max="35" width="24.1428571428571" customWidth="1"/>
-    <col min="36" max="36" width="25.1428571428571" customWidth="1"/>
-    <col min="37" max="43" width="23.7142857142857" customWidth="1"/>
-    <col min="44" max="44" width="35.7142857142857" customWidth="1"/>
-    <col min="45" max="45" width="16.7142857142857" customWidth="1"/>
-    <col min="46" max="46" width="17.4285714285714" customWidth="1"/>
+    <col min="19" max="19" width="27.8611111111111" customWidth="1"/>
+    <col min="20" max="20" width="25.5740740740741" customWidth="1"/>
+    <col min="21" max="32" width="29.1388888888889" customWidth="1"/>
+    <col min="33" max="33" width="24.1388888888889" customWidth="1"/>
+    <col min="34" max="34" width="28.5740740740741" customWidth="1"/>
+    <col min="35" max="35" width="24.1388888888889" customWidth="1"/>
+    <col min="36" max="36" width="25.1388888888889" customWidth="1"/>
+    <col min="37" max="43" width="23.712962962963" customWidth="1"/>
+    <col min="44" max="44" width="35.712962962963" customWidth="1"/>
+    <col min="45" max="45" width="16.712962962963" customWidth="1"/>
+    <col min="46" max="46" width="17.4259259259259" customWidth="1"/>
     <col min="47" max="47" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" spans="1:47">
-      <c r="A1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AC1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AD1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AE1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AF1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AG1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AH1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AI1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AK1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AL1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AM1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AN1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AO1" s="7" t="s">
         <v>54</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="9">
+        <v>66</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="8">
         <v>2020</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="9">
+      <c r="I2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="8">
         <v>2020</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="W2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="9" t="s">
+      <c r="AL2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>82</v>
+      <c r="AQ2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="AS2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT2" s="9">
+        <v>89</v>
+      </c>
+      <c r="AT2" s="8">
         <v>2</v>
       </c>
       <c r="AU2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="43:43">
-      <c r="AQ8" s="13"/>
+      <c r="AQ8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1701,140 +1789,140 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="22" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:20">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/PEMC Test Data.xlsx
+++ b/Test Data/PEMC Test Data.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8340"/>
+    <workbookView windowWidth="19545" windowHeight="9675" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="4" r:id="rId1"/>
-    <sheet name="CMS Login" sheetId="1" r:id="rId2"/>
+    <sheet name="CMS Login" sheetId="1" r:id="rId1"/>
+    <sheet name="CMS Login Data Driven" sheetId="4" r:id="rId2"/>
     <sheet name="CMS Events and Trainings" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="CMS Events" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="115">
   <si>
     <t>Username</t>
   </si>
@@ -25,6 +27,21 @@
     <t>Password</t>
   </si>
   <si>
+    <t>adminadmin</t>
+  </si>
+  <si>
+    <t>Admin123</t>
+  </si>
+  <si>
+    <t>cmsSample</t>
+  </si>
+  <si>
+    <t>Wog12345!</t>
+  </si>
+  <si>
+    <t>aronpaul</t>
+  </si>
+  <si>
     <t>Result</t>
   </si>
   <si>
@@ -34,33 +51,9 @@
     <t>aronbraza</t>
   </si>
   <si>
-    <t>Wog12345!</t>
-  </si>
-  <si>
-    <t>aronpaul</t>
-  </si>
-  <si>
     <t>Wog098765</t>
   </si>
   <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>L_00</t>
-  </si>
-  <si>
-    <t>adminadmin</t>
-  </si>
-  <si>
-    <t>Admin123</t>
-  </si>
-  <si>
-    <t>adminadmin123</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -350,6 +343,27 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The quick, brown fox jumps over a lazy dog. DJs flock by when MTV ax quiz prog. </t>
+  </si>
+  <si>
+    <t>Please fill all required(*) fields.</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>PEMC Grand Private Event</t>
+  </si>
+  <si>
+    <t>The quick, brown fox jumps over a lazy dog. DJs flock by when MTV ax quiz prog. Junk MTV quiz graced by fox whelps. Bawds jog, flick quartz, vex nymphs. Waltz, bad nymph, for quick jigs vex! Fox nymphs grab quick-jived waltz. Brick quiz whangs jumpy veldt fox. Bright vixens jump; dozy fowl quack. Quick wafting zephyrs vex bold Jim. Quick zephyrs blow, vexing daft Jim. Sex-charged fop blew my junk TV quiz. How quickly daft jumping zebras vex. Two driven jocks help fax my big quiz. Quick, Baz, get my woven flax jodhpurs! "Now fax quiz Jack!" my brave ghost pled. Five quacking zephyrs jolt my wax bed. Flummoxed by job, kvetching W. zaps Iraq. Cozy sphinx waves quart jug of bad milk. A very bad quack might jinx zippy fowls. Few quips galvanized the mock jury box. Quick brown dogs jump over the lazy fox. The jay, pig, fox, zebra, and my wolves quack! Blowzy red vixens fight og. Watch "Jeo</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
   </si>
 </sst>
 </file>
@@ -357,10 +371,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -379,8 +393,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -388,7 +431,37 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -403,36 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -442,31 +485,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,15 +506,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,17 +530,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -532,7 +546,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,54 +654,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -610,19 +666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,7 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,49 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,13 +714,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,11 +755,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +775,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,17 +809,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,17 +833,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,19 +852,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,138 +873,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1004,6 +1015,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1342,61 +1359,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.712962962963" customWidth="1"/>
-    <col min="2" max="2" width="19.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="23.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="19.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="57.6" spans="1:3">
-      <c r="A2">
-        <v>789456123</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="57.6" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" ht="57.6" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
+      <c r="B4">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
@@ -1408,51 +1413,61 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.712962962963" customWidth="1"/>
-    <col min="3" max="3" width="19.287037037037" customWidth="1"/>
-    <col min="4" max="4" width="14.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="23.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="19.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="60" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" ht="60" spans="1:3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="60" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1466,322 +1481,322 @@
   <sheetPr/>
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AR26" sqref="AR26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="26.1388888888889" customWidth="1"/>
-    <col min="3" max="3" width="24.4259259259259" customWidth="1"/>
-    <col min="4" max="4" width="31.1388888888889" customWidth="1"/>
-    <col min="5" max="5" width="28.287037037037" customWidth="1"/>
-    <col min="6" max="6" width="27.1388888888889" customWidth="1"/>
-    <col min="7" max="7" width="20.712962962963" customWidth="1"/>
-    <col min="8" max="8" width="17.4259259259259" customWidth="1"/>
-    <col min="9" max="9" width="16.1388888888889" customWidth="1"/>
-    <col min="10" max="10" width="18.712962962963" customWidth="1"/>
-    <col min="11" max="11" width="20.712962962963" customWidth="1"/>
-    <col min="12" max="12" width="19.8611111111111" customWidth="1"/>
-    <col min="13" max="13" width="19.4259259259259" customWidth="1"/>
-    <col min="14" max="14" width="15.1388888888889" customWidth="1"/>
-    <col min="15" max="15" width="19.1388888888889" customWidth="1"/>
-    <col min="16" max="16" width="19.287037037037" customWidth="1"/>
-    <col min="17" max="17" width="27.8611111111111" customWidth="1"/>
+    <col min="2" max="2" width="26.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="24.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="31.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="28.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="27.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="20.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="17.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="16.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="18.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="20.7142857142857" customWidth="1"/>
+    <col min="12" max="12" width="19.8571428571429" customWidth="1"/>
+    <col min="13" max="13" width="19.4285714285714" customWidth="1"/>
+    <col min="14" max="14" width="15.1428571428571" customWidth="1"/>
+    <col min="15" max="15" width="19.1428571428571" customWidth="1"/>
+    <col min="16" max="16" width="19.2857142857143" customWidth="1"/>
+    <col min="17" max="17" width="27.8571428571429" customWidth="1"/>
     <col min="18" max="18" width="27" customWidth="1"/>
-    <col min="19" max="19" width="27.8611111111111" customWidth="1"/>
-    <col min="20" max="20" width="25.5740740740741" customWidth="1"/>
-    <col min="21" max="32" width="29.1388888888889" customWidth="1"/>
-    <col min="33" max="33" width="24.1388888888889" customWidth="1"/>
-    <col min="34" max="34" width="28.5740740740741" customWidth="1"/>
-    <col min="35" max="35" width="24.1388888888889" customWidth="1"/>
-    <col min="36" max="36" width="25.1388888888889" customWidth="1"/>
-    <col min="37" max="43" width="23.712962962963" customWidth="1"/>
-    <col min="44" max="44" width="35.712962962963" customWidth="1"/>
-    <col min="45" max="45" width="16.712962962963" customWidth="1"/>
-    <col min="46" max="46" width="17.4259259259259" customWidth="1"/>
+    <col min="19" max="19" width="27.8571428571429" customWidth="1"/>
+    <col min="20" max="20" width="25.5714285714286" customWidth="1"/>
+    <col min="21" max="32" width="29.1428571428571" customWidth="1"/>
+    <col min="33" max="33" width="24.1428571428571" customWidth="1"/>
+    <col min="34" max="34" width="28.5714285714286" customWidth="1"/>
+    <col min="35" max="35" width="24.1428571428571" customWidth="1"/>
+    <col min="36" max="36" width="25.1428571428571" customWidth="1"/>
+    <col min="37" max="43" width="23.7142857142857" customWidth="1"/>
+    <col min="44" max="44" width="35.7142857142857" customWidth="1"/>
+    <col min="45" max="45" width="16.7142857142857" customWidth="1"/>
+    <col min="46" max="46" width="17.4285714285714" customWidth="1"/>
     <col min="47" max="47" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:47">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:47">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="S1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="W1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="X1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="Y1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Z1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="AA1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AB1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AC1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AD1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AE1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AF1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AG1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AH1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AI1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AK1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AL1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AM1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AN1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AO1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AP1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AR1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AS1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AT1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AU1" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="AS1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:47">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="9">
+        <v>2020</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="8">
+      <c r="L2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="9">
         <v>2020</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="N2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="AH2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="8">
-        <v>2020</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AQ2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AK2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AR2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AM2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="AS2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT2" s="8">
+        <v>86</v>
+      </c>
+      <c r="AT2" s="9">
         <v>2</v>
       </c>
       <c r="AU2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="43:43">
-      <c r="AQ8" s="12"/>
+      <c r="AQ8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1795,134 +1810,4026 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="22" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:20">
+      <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" ht="36" customHeight="1" spans="1:20">
-      <c r="A2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>63</v>
+      <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="31" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="25.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="28.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="22.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="36.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="25.7142857142857" customWidth="1"/>
+    <col min="8" max="20" width="25.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:20">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="O2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:20">
+      <c r="A3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:20">
+      <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:20">
+      <c r="A5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:20">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:20">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:20">
+      <c r="A8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:20">
+      <c r="A9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:20">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:20">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:20">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:20">
+      <c r="A13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:20">
+      <c r="A14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:20">
+      <c r="A15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:20">
+      <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:20">
+      <c r="A17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:20">
+      <c r="A18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:20">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:20">
+      <c r="A20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:20">
+      <c r="A21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:20">
+      <c r="A22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:20">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:20">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:20">
+      <c r="A25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:20">
+      <c r="A26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:20">
+      <c r="A27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:20">
+      <c r="A28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:20">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:20">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:20">
+      <c r="A31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:20">
+      <c r="A32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="28.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="75" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Q2" s="3" t="s">
+    </row>
+    <row r="2" ht="285" spans="1:20">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>110</v>
+      <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>90</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" ht="285" spans="1:20">
+      <c r="A3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" ht="285" spans="1:20">
+      <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" ht="285" spans="1:20">
+      <c r="A5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" ht="285" spans="1:20">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" ht="285" spans="1:20">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" ht="285" spans="1:20">
+      <c r="A8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" ht="285" spans="1:20">
+      <c r="A9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" ht="285" spans="1:20">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" ht="285" spans="1:20">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" ht="285" spans="1:20">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" ht="69" customHeight="1" spans="1:20">
+      <c r="A13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" ht="285" spans="1:20">
+      <c r="A14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" ht="285" spans="1:20">
+      <c r="A15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" ht="285" spans="1:20">
+      <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" ht="285" spans="1:20">
+      <c r="A17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" ht="285" spans="1:20">
+      <c r="A18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" ht="285" spans="1:20">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" ht="285" spans="1:20">
+      <c r="A20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" ht="285" spans="1:20">
+      <c r="A21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" ht="285" spans="1:20">
+      <c r="A22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" ht="285" spans="1:20">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" ht="285" spans="1:20">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" ht="285" spans="1:20">
+      <c r="A25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" ht="285" spans="1:20">
+      <c r="A26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" ht="285" spans="1:20">
+      <c r="A27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" ht="285" spans="1:20">
+      <c r="A28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" ht="285" spans="1:20">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" ht="285" spans="1:20">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" ht="285" spans="1:20">
+      <c r="A31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" ht="285" spans="1:20">
+      <c r="A32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/PEMC Test Data.xlsx
+++ b/Test Data/PEMC Test Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="149">
   <si>
     <t>Username</t>
   </si>
@@ -351,6 +351,21 @@
     <t xml:space="preserve">The quick, brown fox jumps over a lazy dog. DJs flock by when MTV ax quiz prog. </t>
   </si>
   <si>
+    <t>02/12/2020 07:00</t>
+  </si>
+  <si>
+    <t>02/13/2020 17:00</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:00</t>
+  </si>
+  <si>
+    <t>01/30/2020 23:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/14/2020 10:00 </t>
+  </si>
+  <si>
     <t>Please fill all required(*) fields.</t>
   </si>
   <si>
@@ -364,6 +379,93 @@
   </si>
   <si>
     <t>Lifetime</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:01</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:02</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:03</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:04</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:05</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:06</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:07</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:08</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:09</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:10</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:11</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:12</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:13</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:14</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:15</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:16</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:17</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:18</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:19</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:20</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:21</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:22</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:23</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:24</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:25</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:26</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:27</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:28</t>
+  </si>
+  <si>
+    <t>01/25/2020 07:29</t>
   </si>
 </sst>
 </file>
@@ -371,10 +473,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -394,29 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,6 +510,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -439,14 +556,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,6 +594,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -483,24 +624,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,29 +638,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -546,7 +648,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,19 +744,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,151 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,15 +911,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -844,6 +937,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -855,7 +957,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,130 +975,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1949,10 +2051,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="$A33:$XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="31" customHeight="1"/>
@@ -2046,16 +2148,16 @@
         <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>102</v>
@@ -2065,7 +2167,7 @@
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>104</v>
@@ -2086,49 +2188,47 @@
         <v>87</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:20">
       <c r="A3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J3" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
         <v>105</v>
@@ -2146,49 +2246,47 @@
         <v>87</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:20">
       <c r="A4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J4" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
         <v>105</v>
@@ -2206,49 +2304,47 @@
         <v>87</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:20">
       <c r="A5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="H5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J5" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
         <v>105</v>
@@ -2266,49 +2362,47 @@
         <v>87</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:20">
       <c r="A6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="H6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J6" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
         <v>105</v>
@@ -2326,7 +2420,7 @@
         <v>87</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:20">
@@ -2340,22 +2434,22 @@
         <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>102</v>
@@ -2365,7 +2459,7 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>104</v>
@@ -2386,49 +2480,47 @@
         <v>87</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:20">
       <c r="A8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="H8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J8" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
         <v>105</v>
@@ -2446,49 +2538,47 @@
         <v>87</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:20">
       <c r="A9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="H9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J9" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2" t="s">
         <v>105</v>
@@ -2506,7 +2596,7 @@
         <v>87</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:20">
@@ -2520,22 +2610,22 @@
         <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>102</v>
@@ -2545,7 +2635,7 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>104</v>
@@ -2566,7 +2656,7 @@
         <v>87</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:20">
@@ -2580,22 +2670,22 @@
         <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>102</v>
@@ -2605,7 +2695,7 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>104</v>
@@ -2626,49 +2716,47 @@
         <v>87</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:20">
       <c r="A12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="H12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J12" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2" t="s">
         <v>105</v>
@@ -2686,49 +2774,47 @@
         <v>87</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:20">
       <c r="A13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="H13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J13" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2" t="s">
         <v>105</v>
@@ -2746,49 +2832,47 @@
         <v>87</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:20">
       <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="H14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J14" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
         <v>105</v>
@@ -2806,49 +2890,47 @@
         <v>87</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:20">
       <c r="A15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="H15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J15" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
         <v>105</v>
@@ -2866,7 +2948,7 @@
         <v>87</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:20">
@@ -2880,22 +2962,22 @@
         <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>102</v>
@@ -2905,7 +2987,7 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>104</v>
@@ -2926,49 +3008,47 @@
         <v>87</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:20">
       <c r="A17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="H17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J17" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2" t="s">
         <v>105</v>
@@ -2986,49 +3066,47 @@
         <v>87</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:20">
       <c r="A18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="H18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J18" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2" t="s">
         <v>105</v>
@@ -3046,7 +3124,7 @@
         <v>87</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:20">
@@ -3060,22 +3138,22 @@
         <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>102</v>
@@ -3085,7 +3163,7 @@
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>104</v>
@@ -3106,49 +3184,47 @@
         <v>87</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:20">
       <c r="A20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="H20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J20" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
         <v>105</v>
@@ -3166,49 +3242,47 @@
         <v>87</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:20">
       <c r="A21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="H21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J21" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
         <v>105</v>
@@ -3226,7 +3300,7 @@
         <v>87</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:20">
@@ -3240,22 +3314,22 @@
         <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>102</v>
@@ -3265,7 +3339,7 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>104</v>
@@ -3286,7 +3360,7 @@
         <v>87</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:20">
@@ -3300,22 +3374,22 @@
         <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>102</v>
@@ -3325,7 +3399,7 @@
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>104</v>
@@ -3346,7 +3420,7 @@
         <v>87</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:20">
@@ -3360,22 +3434,22 @@
         <v>61</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>102</v>
@@ -3385,7 +3459,7 @@
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>104</v>
@@ -3406,48 +3480,48 @@
         <v>87</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:20">
       <c r="A25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="H25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J25" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="M25" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
@@ -3466,49 +3540,47 @@
         <v>87</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:20">
       <c r="A26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="H26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J26" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2" t="s">
         <v>105</v>
@@ -3526,49 +3598,47 @@
         <v>87</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:20">
       <c r="A27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="H27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J27" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2" t="s">
         <v>105</v>
@@ -3586,7 +3656,7 @@
         <v>87</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:20">
@@ -3600,22 +3670,22 @@
         <v>61</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>102</v>
@@ -3625,7 +3695,7 @@
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>104</v>
@@ -3646,7 +3716,7 @@
         <v>87</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:20">
@@ -3660,22 +3730,22 @@
         <v>61</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>102</v>
@@ -3685,7 +3755,7 @@
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>104</v>
@@ -3706,7 +3776,7 @@
         <v>87</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:20">
@@ -3720,22 +3790,22 @@
         <v>61</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>102</v>
@@ -3745,7 +3815,7 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>104</v>
@@ -3766,49 +3836,47 @@
         <v>87</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:20">
       <c r="A31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="H31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J31" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
         <v>105</v>
@@ -3826,49 +3894,47 @@
         <v>87</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:20">
       <c r="A32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="H32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="J32" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
         <v>105</v>
@@ -3886,7 +3952,67 @@
         <v>87</v>
       </c>
       <c r="T32" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:20">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4029,21 +4155,21 @@
         <v>87</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" ht="285" spans="1:20">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>63</v>
@@ -4064,7 +4190,7 @@
         <v>102</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>103</v>
@@ -4089,21 +4215,21 @@
         <v>87</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" ht="285" spans="1:20">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>63</v>
@@ -4124,7 +4250,7 @@
         <v>102</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>103</v>
@@ -4149,21 +4275,21 @@
         <v>87</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" ht="285" spans="1:20">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>63</v>
@@ -4184,7 +4310,7 @@
         <v>102</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>103</v>
@@ -4209,21 +4335,21 @@
         <v>87</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" ht="285" spans="1:20">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>63</v>
@@ -4244,7 +4370,7 @@
         <v>102</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>103</v>
@@ -4269,7 +4395,7 @@
         <v>87</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="285" spans="1:20">
@@ -4283,7 +4409,7 @@
         <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>63</v>
@@ -4329,21 +4455,21 @@
         <v>87</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="285" spans="1:20">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>63</v>
@@ -4364,7 +4490,7 @@
         <v>102</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>103</v>
@@ -4389,21 +4515,21 @@
         <v>87</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="285" spans="1:20">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>63</v>
@@ -4424,7 +4550,7 @@
         <v>102</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>103</v>
@@ -4449,7 +4575,7 @@
         <v>87</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" ht="285" spans="1:20">
@@ -4463,7 +4589,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>63</v>
@@ -4509,7 +4635,7 @@
         <v>87</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" ht="285" spans="1:20">
@@ -4523,7 +4649,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>63</v>
@@ -4569,21 +4695,21 @@
         <v>87</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" ht="285" spans="1:20">
       <c r="A12" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>63</v>
@@ -4604,7 +4730,7 @@
         <v>102</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>103</v>
@@ -4629,21 +4755,21 @@
         <v>87</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" ht="69" customHeight="1" spans="1:20">
       <c r="A13" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>63</v>
@@ -4664,7 +4790,7 @@
         <v>102</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>103</v>
@@ -4689,21 +4815,21 @@
         <v>87</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" ht="285" spans="1:20">
       <c r="A14" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>63</v>
@@ -4724,7 +4850,7 @@
         <v>102</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>103</v>
@@ -4749,21 +4875,21 @@
         <v>87</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" ht="285" spans="1:20">
       <c r="A15" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>63</v>
@@ -4784,7 +4910,7 @@
         <v>102</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>103</v>
@@ -4809,7 +4935,7 @@
         <v>87</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" ht="285" spans="1:20">
@@ -4823,7 +4949,7 @@
         <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>63</v>
@@ -4869,21 +4995,21 @@
         <v>87</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" ht="285" spans="1:20">
       <c r="A17" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>63</v>
@@ -4904,7 +5030,7 @@
         <v>102</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>103</v>
@@ -4929,21 +5055,21 @@
         <v>87</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" ht="285" spans="1:20">
       <c r="A18" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>63</v>
@@ -4964,7 +5090,7 @@
         <v>102</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>103</v>
@@ -4989,7 +5115,7 @@
         <v>87</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" ht="285" spans="1:20">
@@ -5003,7 +5129,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>63</v>
@@ -5049,21 +5175,21 @@
         <v>87</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" ht="285" spans="1:20">
       <c r="A20" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>63</v>
@@ -5084,7 +5210,7 @@
         <v>102</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>103</v>
@@ -5109,21 +5235,21 @@
         <v>87</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" ht="285" spans="1:20">
       <c r="A21" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>63</v>
@@ -5144,7 +5270,7 @@
         <v>102</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>103</v>
@@ -5169,7 +5295,7 @@
         <v>87</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" ht="285" spans="1:20">
@@ -5183,7 +5309,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>63</v>
@@ -5229,7 +5355,7 @@
         <v>87</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" ht="285" spans="1:20">
@@ -5243,7 +5369,7 @@
         <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>63</v>
@@ -5289,7 +5415,7 @@
         <v>87</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" ht="285" spans="1:20">
@@ -5303,7 +5429,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>63</v>
@@ -5349,21 +5475,21 @@
         <v>87</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" ht="285" spans="1:20">
       <c r="A25" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -5384,7 +5510,7 @@
         <v>102</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>103</v>
@@ -5409,21 +5535,21 @@
         <v>87</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" ht="285" spans="1:20">
       <c r="A26" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>63</v>
@@ -5444,7 +5570,7 @@
         <v>102</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>103</v>
@@ -5469,21 +5595,21 @@
         <v>87</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" ht="285" spans="1:20">
       <c r="A27" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -5504,7 +5630,7 @@
         <v>102</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>103</v>
@@ -5529,7 +5655,7 @@
         <v>87</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" ht="285" spans="1:20">
@@ -5543,7 +5669,7 @@
         <v>61</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>63</v>
@@ -5589,7 +5715,7 @@
         <v>87</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" ht="285" spans="1:20">
@@ -5603,7 +5729,7 @@
         <v>61</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>63</v>
@@ -5649,7 +5775,7 @@
         <v>87</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" ht="285" spans="1:20">
@@ -5663,7 +5789,7 @@
         <v>61</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>63</v>
@@ -5709,21 +5835,21 @@
         <v>87</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" ht="285" spans="1:20">
       <c r="A31" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>63</v>
@@ -5744,7 +5870,7 @@
         <v>102</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>103</v>
@@ -5769,21 +5895,21 @@
         <v>87</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" ht="285" spans="1:20">
       <c r="A32" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>63</v>
@@ -5804,7 +5930,7 @@
         <v>102</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>103</v>
@@ -5829,7 +5955,7 @@
         <v>87</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
